--- a/customer.xlsx
+++ b/customer.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -52,55 +52,13 @@
     <t>aditya</t>
   </si>
   <si>
-    <t>Jain</t>
-  </si>
-  <si>
-    <t>23-04-2009</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>email@gmail.com</t>
-  </si>
-  <si>
-    <t>872392931</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Data Binding</t>
-  </si>
-  <si>
-    <t>Hardhik</t>
-  </si>
-  <si>
-    <t>Variya</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Niraj</t>
-  </si>
-  <si>
-    <t>2019-12-26</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>khati</t>
+  </si>
+  <si>
+    <t>1999-02-14</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>No</t>
@@ -109,106 +67,145 @@
     <t>Male</t>
   </si>
   <si>
-    <t>niraj.sj@somaiya.edu</t>
-  </si>
-  <si>
-    <t>8451209556</t>
-  </si>
-  <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>DataMining</t>
-  </si>
-  <si>
-    <t>Aditya</t>
-  </si>
-  <si>
-    <t>04/12/2019</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>SE</t>
+    <t>adjh@somaiya.edu</t>
+  </si>
+  <si>
+    <t>9594976005</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>aditya khati</t>
+  </si>
+  <si>
+    <t>adity</t>
+  </si>
+  <si>
+    <t>1999-05-12</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>aditya@somaiya.edu</t>
+  </si>
+  <si>
+    <t>Information Technolo</t>
+  </si>
+  <si>
+    <t>hajsh</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>ad@somaiya.edu</t>
+  </si>
+  <si>
+    <t>hhjdhs jnsjanj</t>
+  </si>
+  <si>
+    <t>Aditya khati</t>
+  </si>
+  <si>
+    <t>1999-05-29</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>arsena@gmail.com</t>
+  </si>
+  <si>
+    <t>9594976008</t>
+  </si>
+  <si>
+    <t>Blockchain managment</t>
+  </si>
+  <si>
+    <t>aashitosh jaswani</t>
+  </si>
+  <si>
+    <t>2020-01-16</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>snadn@somaiya.edu</t>
+  </si>
+  <si>
+    <t>7546789130</t>
+  </si>
+  <si>
+    <t>ETRX</t>
+  </si>
+  <si>
+    <t>Android Application</t>
+  </si>
+  <si>
+    <t>Niraj Jain</t>
+  </si>
+  <si>
+    <t>1999-05-04</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>niraj.jain@somaiya.e</t>
+  </si>
+  <si>
+    <t>8976543210</t>
+  </si>
+  <si>
+    <t>Network design</t>
+  </si>
+  <si>
+    <t>hardik variya</t>
+  </si>
+  <si>
+    <t>275760-05-04</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>hardik@somaiya.edu</t>
+  </si>
+  <si>
+    <t>6549871230</t>
   </si>
   <si>
     <t>EXTC</t>
   </si>
   <si>
-    <t>Data Mining</t>
-  </si>
-  <si>
-    <t>jain</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>njain2698.nj@gmail.c</t>
-  </si>
-  <si>
-    <t>COMPS</t>
-  </si>
-  <si>
-    <t>Suresh</t>
-  </si>
-  <si>
-    <t>26/11/2019</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>845-209-5566</t>
-  </si>
-  <si>
-    <t>05/12/2019</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>01/06/2019</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Jaswani</t>
-  </si>
-  <si>
-    <t>2019-12-07</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>2019-12-21</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>2019-12-06</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>2019-12-20</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>surajmaljhutawat@gma</t>
+    <t>software managment</t>
+  </si>
+  <si>
+    <t>7891-05-04</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>aditya.jh@somaiya.ed</t>
+  </si>
+  <si>
+    <t>7589463210</t>
+  </si>
+  <si>
+    <t>designing antenna</t>
+  </si>
+  <si>
+    <t>sid yat</t>
+  </si>
+  <si>
+    <t>la</t>
   </si>
 </sst>
 </file>
@@ -585,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="9" width="10" customWidth="1"/>
@@ -662,25 +659,22 @@
       <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -689,7 +683,7 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -698,267 +692,228 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
         <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="L6" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
       </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
@@ -966,125 +921,8 @@
       <c r="J10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" t="s">
-        <v>22</v>
-      </c>
       <c r="L10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
         <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
